--- a/pred_ohlcv/54_21/2020-01-22 BTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 BTC ohlcv.xlsx
@@ -7360,7 +7360,7 @@
         <v>18.09775080000002</v>
       </c>
       <c r="H268">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>28.92553300000003</v>
       </c>
       <c r="H349">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>41.49303340000003</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>44.18673555000003</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>44.86936736000003</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>44.86936736000003</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>44.86936736000003</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>42.61036736000003</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>42.61036736000003</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>45.72126736000003</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>46.70326420000003</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>55.35253743000003</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>55.35253743000003</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>60.54313527000003</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>63.15663527000003</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>69.66666002000004</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>72.56526002000004</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>29.37828033000007</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>33.06741780000007</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>29.01407994000007</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>31.01137994000007</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>27.59930943000008</v>
       </c>
       <c r="H501">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>29.06280943000008</v>
       </c>
       <c r="H502">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>30.58640943000007</v>
       </c>
       <c r="H503">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>20.87573671000008</v>
       </c>
       <c r="H523">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>20.91393671000008</v>
       </c>
       <c r="H524">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>21.29803671000008</v>
       </c>
       <c r="H525">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>21.32413671000008</v>
       </c>
       <c r="H526">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>21.16103671000008</v>
       </c>
       <c r="H527">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>21.55173671000007</v>
       </c>
       <c r="H528">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>22.58638236000007</v>
       </c>
       <c r="H531">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>21.65478236000007</v>
       </c>
       <c r="H532">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>21.71108236000007</v>
       </c>
       <c r="H533">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>21.71108236000007</v>
       </c>
       <c r="H534">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>21.71108236000007</v>
       </c>
       <c r="H535">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>21.71108236000007</v>
       </c>
       <c r="H536">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>21.71108236000007</v>
       </c>
       <c r="H537">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>23.86522801000007</v>
       </c>
       <c r="H539">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>24.10852801000008</v>
       </c>
       <c r="H540">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>24.12202801000008</v>
       </c>
       <c r="H541">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>23.57212035000008</v>
       </c>
       <c r="H545">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>23.67008332000007</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>24.47658332000007</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -29382,7 +29382,7 @@
         <v>196.77598246</v>
       </c>
       <c r="H1115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1116" spans="1:8">
@@ -29850,7 +29850,7 @@
         <v>185.48021422</v>
       </c>
       <c r="H1133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1134" spans="1:8">
@@ -29876,7 +29876,7 @@
         <v>185.94121422</v>
       </c>
       <c r="H1134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1135" spans="1:8">
@@ -29902,7 +29902,7 @@
         <v>185.94121422</v>
       </c>
       <c r="H1135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1136" spans="1:8">
@@ -29954,7 +29954,7 @@
         <v>183.09091427</v>
       </c>
       <c r="H1137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1138" spans="1:8">
@@ -30162,7 +30162,7 @@
         <v>195.29791424</v>
       </c>
       <c r="H1145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1146" spans="1:8">
@@ -30188,7 +30188,7 @@
         <v>193.26111424</v>
       </c>
       <c r="H1146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1147" spans="1:8">
@@ -30214,7 +30214,7 @@
         <v>194.02371424</v>
       </c>
       <c r="H1147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1148" spans="1:8">
@@ -30240,7 +30240,7 @@
         <v>193.70419564</v>
       </c>
       <c r="H1148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1149" spans="1:8">
@@ -30266,7 +30266,7 @@
         <v>193.70419564</v>
       </c>
       <c r="H1149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1150" spans="1:8">
@@ -30292,7 +30292,7 @@
         <v>196.03109564</v>
       </c>
       <c r="H1150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1151" spans="1:8">
@@ -30318,7 +30318,7 @@
         <v>195.91889564</v>
       </c>
       <c r="H1151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1152" spans="1:8">
@@ -30344,7 +30344,7 @@
         <v>196.96949564</v>
       </c>
       <c r="H1152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1153" spans="1:8">
@@ -30370,7 +30370,7 @@
         <v>199.00859564</v>
       </c>
       <c r="H1153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1154" spans="1:8">
@@ -30396,7 +30396,7 @@
         <v>197.84309564</v>
       </c>
       <c r="H1154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1155" spans="1:8">
@@ -30422,7 +30422,7 @@
         <v>198.01539564</v>
       </c>
       <c r="H1155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1156" spans="1:8">
@@ -30448,7 +30448,7 @@
         <v>198.41789564</v>
       </c>
       <c r="H1156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1157" spans="1:8">
@@ -30474,7 +30474,7 @@
         <v>198.41789564</v>
       </c>
       <c r="H1157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1158" spans="1:8">
@@ -30500,7 +30500,7 @@
         <v>200.90939564</v>
       </c>
       <c r="H1158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1159" spans="1:8">
@@ -30526,7 +30526,7 @@
         <v>198.94791</v>
       </c>
       <c r="H1159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1160" spans="1:8">
@@ -30552,7 +30552,7 @@
         <v>202.25721</v>
       </c>
       <c r="H1160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1161" spans="1:8">
@@ -30578,7 +30578,7 @@
         <v>199.35594538</v>
       </c>
       <c r="H1161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1162" spans="1:8">
@@ -30604,7 +30604,7 @@
         <v>204.06965173</v>
       </c>
       <c r="H1162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1163" spans="1:8">
@@ -30630,7 +30630,7 @@
         <v>205.46655173</v>
       </c>
       <c r="H1163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1164" spans="1:8">
@@ -30656,7 +30656,7 @@
         <v>205.46655173</v>
       </c>
       <c r="H1164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1165" spans="1:8">
@@ -30682,7 +30682,7 @@
         <v>203.90355173</v>
       </c>
       <c r="H1165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1166" spans="1:8">
@@ -30708,7 +30708,7 @@
         <v>188.08245173</v>
       </c>
       <c r="H1166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1167" spans="1:8">
@@ -30734,7 +30734,7 @@
         <v>186.28465173</v>
       </c>
       <c r="H1167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1168" spans="1:8">
@@ -30760,7 +30760,7 @@
         <v>184.37775173</v>
       </c>
       <c r="H1168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1169" spans="1:8">
@@ -30786,7 +30786,7 @@
         <v>181.81435173</v>
       </c>
       <c r="H1169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1170" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-22 BTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 BTC ohlcv.xlsx
@@ -9882,7 +9882,7 @@
         <v>41.49303340000003</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>44.18673555000003</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>44.86936736000003</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>44.86936736000003</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>44.86936736000003</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>42.61036736000003</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>42.61036736000003</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>45.72126736000003</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>46.70326420000003</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>55.35253743000003</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>55.35253743000003</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>60.54313527000003</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>63.15663527000003</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>69.66666002000004</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>72.56526002000004</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>79.98118489000005</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>76.94488489000005</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>75.61458489000006</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>77.41348489000006</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>81.34898489000007</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>78.02988489000006</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>76.24339935000006</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>74.19684031000006</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>74.19684031000006</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>71.96304031000005</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>68.78296344000006</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>63.09296344000006</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>29.37828033000007</v>
       </c>
       <c r="H439">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>33.06741780000007</v>
       </c>
       <c r="H447">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>29.01407994000007</v>
       </c>
       <c r="H448">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>31.01137994000007</v>
       </c>
       <c r="H449">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>14.30238798000008</v>
       </c>
       <c r="H493">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>13.12498798000008</v>
       </c>
       <c r="H494">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>27.59930943000008</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>29.06280943000008</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>30.58640943000007</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>20.87573671000008</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>20.91393671000008</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>21.29803671000008</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>21.32413671000008</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>21.16103671000008</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>21.55173671000007</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>22.58638236000007</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>21.65478236000007</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>21.71108236000007</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>21.71108236000007</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>21.71108236000007</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>21.71108236000007</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>21.71108236000007</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>23.86522801000007</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>24.10852801000008</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>24.12202801000008</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>22.44912418000008</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>22.44912418000008</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>22.44912418000008</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>23.57212035000008</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>21.41452035000008</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>23.01512035000008</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>22.07621652000008</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>22.24401652000008</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>23.67008332000007</v>
       </c>
       <c r="H613">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>24.47658332000007</v>
       </c>
       <c r="H614">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -29382,7 +29382,7 @@
         <v>196.77598246</v>
       </c>
       <c r="H1115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1116" spans="1:8">
@@ -29902,7 +29902,7 @@
         <v>185.94121422</v>
       </c>
       <c r="H1135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1136" spans="1:8">
@@ -29954,7 +29954,7 @@
         <v>183.09091427</v>
       </c>
       <c r="H1137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1138" spans="1:8">
@@ -30162,7 +30162,7 @@
         <v>195.29791424</v>
       </c>
       <c r="H1145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1146" spans="1:8">
@@ -30188,7 +30188,7 @@
         <v>193.26111424</v>
       </c>
       <c r="H1146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1147" spans="1:8">
@@ -30214,7 +30214,7 @@
         <v>194.02371424</v>
       </c>
       <c r="H1147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1148" spans="1:8">
@@ -30240,7 +30240,7 @@
         <v>193.70419564</v>
       </c>
       <c r="H1148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1149" spans="1:8">
@@ -30266,7 +30266,7 @@
         <v>193.70419564</v>
       </c>
       <c r="H1149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1150" spans="1:8">
@@ -30292,7 +30292,7 @@
         <v>196.03109564</v>
       </c>
       <c r="H1150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1151" spans="1:8">
@@ -30318,7 +30318,7 @@
         <v>195.91889564</v>
       </c>
       <c r="H1151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1152" spans="1:8">
@@ -30344,7 +30344,7 @@
         <v>196.96949564</v>
       </c>
       <c r="H1152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1153" spans="1:8">
@@ -30370,7 +30370,7 @@
         <v>199.00859564</v>
       </c>
       <c r="H1153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1154" spans="1:8">
@@ -30396,7 +30396,7 @@
         <v>197.84309564</v>
       </c>
       <c r="H1154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1155" spans="1:8">
@@ -30422,7 +30422,7 @@
         <v>198.01539564</v>
       </c>
       <c r="H1155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1156" spans="1:8">
@@ -30448,7 +30448,7 @@
         <v>198.41789564</v>
       </c>
       <c r="H1156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1157" spans="1:8">
@@ -30474,7 +30474,7 @@
         <v>198.41789564</v>
       </c>
       <c r="H1157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1158" spans="1:8">
@@ -30500,7 +30500,7 @@
         <v>200.90939564</v>
       </c>
       <c r="H1158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1159" spans="1:8">
@@ -30526,7 +30526,7 @@
         <v>198.94791</v>
       </c>
       <c r="H1159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1160" spans="1:8">
@@ -30552,7 +30552,7 @@
         <v>202.25721</v>
       </c>
       <c r="H1160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1161" spans="1:8">
@@ -30578,7 +30578,7 @@
         <v>199.35594538</v>
       </c>
       <c r="H1161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1162" spans="1:8">
@@ -30604,7 +30604,7 @@
         <v>204.06965173</v>
       </c>
       <c r="H1162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1163" spans="1:8">
@@ -30630,7 +30630,7 @@
         <v>205.46655173</v>
       </c>
       <c r="H1163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1164" spans="1:8">
@@ -30656,7 +30656,7 @@
         <v>205.46655173</v>
       </c>
       <c r="H1164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1165" spans="1:8">
@@ -30682,7 +30682,7 @@
         <v>203.90355173</v>
       </c>
       <c r="H1165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1166" spans="1:8">
@@ -30708,7 +30708,7 @@
         <v>188.08245173</v>
       </c>
       <c r="H1166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1167" spans="1:8">
@@ -30734,7 +30734,7 @@
         <v>186.28465173</v>
       </c>
       <c r="H1167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1168" spans="1:8">
@@ -30760,7 +30760,7 @@
         <v>184.37775173</v>
       </c>
       <c r="H1168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1169" spans="1:8">
@@ -30786,7 +30786,7 @@
         <v>181.81435173</v>
       </c>
       <c r="H1169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1170" spans="1:8">
@@ -30812,7 +30812,7 @@
         <v>179.50125173</v>
       </c>
       <c r="H1170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1171" spans="1:8">
